--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H2">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I2">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J2">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>24.59262852629334</v>
+        <v>2.193167645309666</v>
       </c>
       <c r="R2">
-        <v>221.3336567366401</v>
+        <v>19.738508807787</v>
       </c>
       <c r="S2">
-        <v>0.003138800266914765</v>
+        <v>0.0003316848929536572</v>
       </c>
       <c r="T2">
-        <v>0.003138800266914766</v>
+        <v>0.0003316848929536573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H3">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I3">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J3">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>66.03628687684835</v>
+        <v>11.51641966995167</v>
       </c>
       <c r="R3">
-        <v>594.3265818916351</v>
+        <v>103.647777029565</v>
       </c>
       <c r="S3">
-        <v>0.008428326994550532</v>
+        <v>0.001741691946626345</v>
       </c>
       <c r="T3">
-        <v>0.008428326994550534</v>
+        <v>0.001741691946626346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H4">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I4">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J4">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>29.89960665193733</v>
+        <v>5.742298492700665</v>
       </c>
       <c r="R4">
-        <v>269.096459867436</v>
+        <v>51.680686434306</v>
       </c>
       <c r="S4">
-        <v>0.003816139183308866</v>
+        <v>0.0008684396128734794</v>
       </c>
       <c r="T4">
-        <v>0.003816139183308867</v>
+        <v>0.0008684396128734797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.772687</v>
+        <v>0.134753</v>
       </c>
       <c r="H5">
-        <v>2.318061</v>
+        <v>0.404259</v>
       </c>
       <c r="I5">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349546</v>
       </c>
       <c r="J5">
-        <v>0.02743927362033742</v>
+        <v>0.005003875147349547</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>94.45930953433468</v>
+        <v>13.634749451816</v>
       </c>
       <c r="R5">
-        <v>850.133785809012</v>
+        <v>122.712745066344</v>
       </c>
       <c r="S5">
-        <v>0.01205600717556326</v>
+        <v>0.002062058694896064</v>
       </c>
       <c r="T5">
-        <v>0.01205600717556326</v>
+        <v>0.002062058694896065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I6">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J6">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>778.9382152393958</v>
+        <v>398.3226977079436</v>
       </c>
       <c r="R6">
-        <v>7010.443937154562</v>
+        <v>3584.904279371492</v>
       </c>
       <c r="S6">
-        <v>0.09941724916836422</v>
+        <v>0.06024054824665113</v>
       </c>
       <c r="T6">
-        <v>0.09941724916836424</v>
+        <v>0.06024054824665114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I7">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J7">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>2091.609987354283</v>
@@ -883,10 +883,10 @@
         <v>18824.48988618854</v>
       </c>
       <c r="S7">
-        <v>0.2669558473414118</v>
+        <v>0.3163257657206821</v>
       </c>
       <c r="T7">
-        <v>0.2669558473414118</v>
+        <v>0.3163257657206822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I8">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J8">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>947.0295628187716</v>
+        <v>1042.915178667899</v>
       </c>
       <c r="R8">
-        <v>8523.266065368944</v>
+        <v>9386.236608011097</v>
       </c>
       <c r="S8">
-        <v>0.1208710423683923</v>
+        <v>0.1577258401271756</v>
       </c>
       <c r="T8">
-        <v>0.1208710423683923</v>
+        <v>0.1577258401271756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>73.42144400000001</v>
       </c>
       <c r="I9">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403782</v>
       </c>
       <c r="J9">
-        <v>0.86910184482474</v>
+        <v>0.9088028687403783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>2991.87075113805</v>
+        <v>2476.340646294923</v>
       </c>
       <c r="R9">
-        <v>26926.83676024245</v>
+        <v>22287.0658166543</v>
       </c>
       <c r="S9">
-        <v>0.3818577059465717</v>
+        <v>0.3745107146458694</v>
       </c>
       <c r="T9">
-        <v>0.3818577059465718</v>
+        <v>0.3745107146458694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H10">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I10">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J10">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>92.72569955861336</v>
+        <v>37.77797306742433</v>
       </c>
       <c r="R10">
-        <v>834.5312960275202</v>
+        <v>340.001757606819</v>
       </c>
       <c r="S10">
-        <v>0.01183474349694906</v>
+        <v>0.005713372153593642</v>
       </c>
       <c r="T10">
-        <v>0.01183474349694906</v>
+        <v>0.005713372153593643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H11">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I11">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J11">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>248.9876545877284</v>
+        <v>198.3737964833784</v>
       </c>
       <c r="R11">
-        <v>2240.888891289555</v>
+        <v>1785.364168350405</v>
       </c>
       <c r="S11">
-        <v>0.03177873059981671</v>
+        <v>0.03000116821535071</v>
       </c>
       <c r="T11">
-        <v>0.03177873059981671</v>
+        <v>0.03000116821535072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H12">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I12">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J12">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>112.7354865855053</v>
+        <v>98.91282057999132</v>
       </c>
       <c r="R12">
-        <v>1014.619379269548</v>
+        <v>890.2153852199219</v>
       </c>
       <c r="S12">
-        <v>0.01438862767381799</v>
+        <v>0.01495913382453095</v>
       </c>
       <c r="T12">
-        <v>0.01438862767381799</v>
+        <v>0.01495913382453095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.913391</v>
+        <v>2.321161</v>
       </c>
       <c r="H13">
-        <v>8.740173</v>
+        <v>6.963483</v>
       </c>
       <c r="I13">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227224</v>
       </c>
       <c r="J13">
-        <v>0.1034588815549226</v>
+        <v>0.08619325611227226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>356.1557296337907</v>
+        <v>234.862664818792</v>
       </c>
       <c r="R13">
-        <v>3205.401566704116</v>
+        <v>2113.763983369128</v>
       </c>
       <c r="S13">
-        <v>0.04545677978433883</v>
+        <v>0.03551958191879694</v>
       </c>
       <c r="T13">
-        <v>0.04545677978433883</v>
+        <v>0.03551958191879695</v>
       </c>
     </row>
   </sheetData>
